--- a/result.xlsx
+++ b/result.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -51,15 +51,44 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,50 +485,42 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>future_price</t>
+          <t>days</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>dividend</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>VKCO</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>424.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="3" t="n">
+        <v>423.6</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>VKU4</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4330</v>
-      </c>
-      <c r="G2" t="n">
-        <v>38</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.88</v>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +533,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>424.2</v>
+        <v>423.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -525,13 +546,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4523</v>
+        <v>129</v>
       </c>
       <c r="G3" t="n">
-        <v>129</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.26</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +562,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>424.2</v>
+        <v>423.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -557,77 +575,68 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4777</v>
+        <v>220</v>
       </c>
       <c r="G4" t="n">
-        <v>220</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-5.05</v>
+        <v>-3.99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>VKCO</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>424.2</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" s="5" t="n">
+        <v>423.6</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>VKM5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H5" t="n">
-        <v>-5.43</v>
+      <c r="G5" s="6" t="n">
+        <v>-6.12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>MGNT</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>5577.5</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" s="3" t="n">
+        <v>5599</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>MNU4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5686</v>
-      </c>
-      <c r="G6" t="n">
-        <v>38</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-3.41</v>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +649,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5577.5</v>
+        <v>5599</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -653,141 +662,126 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5950</v>
+        <v>129</v>
       </c>
       <c r="G7" t="n">
-        <v>129</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-6.73</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>MGNT</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>5577.5</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" s="5" t="n">
+        <v>5599</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>MNH5</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>6142</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H8" t="n">
-        <v>76.83</v>
+      <c r="G8" s="6" t="n">
+        <v>106.7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>SVCB</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" s="3" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>SCU4</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1467</v>
-      </c>
-      <c r="G9" t="n">
-        <v>38</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.13</v>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>SVCB</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" s="5" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>SCZ4</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1501</v>
-      </c>
-      <c r="G10" t="n">
-        <v>129</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.49</v>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>WUSH</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>256.35</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" s="3" t="n">
+        <v>254.39</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>WUU4</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2547</v>
-      </c>
-      <c r="G11" t="n">
-        <v>38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.33</v>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="12">
@@ -800,7 +794,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>256.35</v>
+        <v>254.39</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -813,13 +807,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2683</v>
+        <v>129</v>
       </c>
       <c r="G12" t="n">
-        <v>129</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.27</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="13">
@@ -832,7 +823,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>256.35</v>
+        <v>254.39</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -845,397 +836,358 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2780</v>
+        <v>220</v>
       </c>
       <c r="G13" t="n">
-        <v>220</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.96</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>WUSH</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>256.35</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" s="5" t="n">
+        <v>254.39</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>WUM5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>2543</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H14" t="n">
-        <v>43.91</v>
+      <c r="G14" s="6" t="n">
+        <v>41.66</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>PHOR</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>5506</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>PHU4</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5488</v>
-      </c>
-      <c r="G15" t="n">
-        <v>38</v>
-      </c>
-      <c r="H15" t="n">
-        <v>137.77</v>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>124.23</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>PHOR</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="5" t="n">
         <v>5506</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>PHZ4</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5591</v>
-      </c>
-      <c r="G16" t="n">
-        <v>129</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>298.3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>TATNP</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>601.7</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" s="3" t="n">
+        <v>602.9</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>TPU4</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>2024-09-19</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>6136</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H17" t="n">
-        <v>-0.93</v>
+      <c r="G17" s="3" t="n">
+        <v>-1.13</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>TATNP</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>601.7</v>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C18" s="5" t="n">
+        <v>602.9</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>TPZ4</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6292</v>
-      </c>
-      <c r="G18" t="n">
-        <v>129</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12.96</v>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>14.34</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>50.28</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" s="3" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>MGU4</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>51148</v>
-      </c>
-      <c r="G19" t="n">
-        <v>38</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.1</v>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>50.28</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C20" s="5" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>MGZ4</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>50631</v>
-      </c>
-      <c r="G20" t="n">
-        <v>129</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.19</v>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>3.23</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>100.29</v>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C21" s="3" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>VBZ4</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>10683</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="H21" t="n">
-        <v>-0.01</v>
+      <c r="G21" s="3" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>100.29</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C22" s="5" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>VBH5</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>11165</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22" s="5" t="n">
         <v>219</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.08</v>
+      <c r="G22" s="6" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>35.44</v>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" s="3" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>RLU4</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3611</v>
-      </c>
-      <c r="G23" t="n">
-        <v>38</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.01</v>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>35.44</v>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C24" s="5" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>RLZ4</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3777</v>
-      </c>
-      <c r="G24" t="n">
-        <v>129</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.01</v>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>59.65</v>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" s="3" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>ALU4</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6080</v>
-      </c>
-      <c r="G25" t="n">
-        <v>38</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.02</v>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="26">
@@ -1248,7 +1200,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>59.65</v>
+        <v>59.59</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1261,77 +1213,68 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6204</v>
+        <v>129</v>
       </c>
       <c r="G26" t="n">
-        <v>129</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>59.65</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C27" s="5" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>ALH5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>6589</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.61</v>
+      <c r="G27" s="6" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>FLOT</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>106.86</v>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C28" s="3" t="n">
+        <v>106.73</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>FLU4</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10858</v>
-      </c>
-      <c r="G28" t="n">
-        <v>38</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.34</v>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="29">
@@ -1344,7 +1287,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>106.86</v>
+        <v>106.73</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1357,77 +1300,68 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>11390</v>
+        <v>129</v>
       </c>
       <c r="G29" t="n">
-        <v>129</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.02</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>FLOT</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>106.86</v>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" s="5" t="n">
+        <v>106.73</v>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>FLH5</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>11484</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H30" t="n">
-        <v>4.4</v>
+      <c r="G30" s="6" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>604.3</v>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C31" s="3" t="n">
+        <v>605.3</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>TTU4</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>61540</v>
-      </c>
-      <c r="G31" t="n">
-        <v>38</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.37</v>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="32">
@@ -1440,7 +1374,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>604.3</v>
+        <v>605.3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1453,205 +1387,184 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>62117</v>
+        <v>129</v>
       </c>
       <c r="G32" t="n">
-        <v>129</v>
-      </c>
-      <c r="H32" t="n">
-        <v>24.61</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>604.3</v>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" s="5" t="n">
+        <v>605.3</v>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>TTH5</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>62648</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H33" t="n">
-        <v>48.52</v>
+      <c r="G33" s="6" t="n">
+        <v>49.67</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>85.68000000000001</v>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C34" s="3" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>ISU4</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>877</v>
-      </c>
-      <c r="G34" t="n">
-        <v>38</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-0.45</v>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>85.68000000000001</v>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="C35" s="5" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>ISZ4</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>913</v>
-      </c>
-      <c r="G35" t="n">
-        <v>129</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.01</v>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>RTKM</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>85.78</v>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="C36" s="3" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>RTU4</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8699</v>
-      </c>
-      <c r="G36" t="n">
-        <v>38</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.47</v>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>RTKM</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>85.78</v>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="C37" s="5" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>RTZ4</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8472</v>
-      </c>
-      <c r="G37" t="n">
-        <v>129</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7.22</v>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>7.63</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>MTSS</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>224.65</v>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="C38" s="3" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>MTU4</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>22903</v>
-      </c>
-      <c r="G38" t="n">
-        <v>38</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0.15</v>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="39">
@@ -1664,7 +1577,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>224.65</v>
+        <v>224.8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1677,524 +1590,473 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>23874</v>
+        <v>129</v>
       </c>
       <c r="G39" t="n">
-        <v>129</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>MTSS</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>224.65</v>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="C40" s="5" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>MTH5</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>25048</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H40" t="n">
-        <v>-0.1</v>
+      <c r="G40" s="6" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>TRNFP</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1416</v>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="C41" s="3" t="n">
+        <v>1417</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>TNU4</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1438</v>
-      </c>
-      <c r="G41" t="n">
-        <v>38</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5.39</v>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>TRNFP</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1416</v>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="C42" s="5" t="n">
+        <v>1417</v>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>TNZ4</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1485</v>
-      </c>
-      <c r="G42" t="n">
-        <v>129</v>
-      </c>
-      <c r="H42" t="n">
-        <v>25.87</v>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>27.02</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>FSU4</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>10265</v>
-      </c>
-      <c r="G43" t="n">
-        <v>38</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G43" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>FSZ4</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10685</v>
-      </c>
-      <c r="G44" t="n">
-        <v>129</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G44" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>IRAO</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="C45" s="3" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>IRU4</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>38945</v>
-      </c>
-      <c r="G45" t="n">
-        <v>38</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-0</v>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>IRAO</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="C46" s="5" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>IRZ4</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>40697</v>
-      </c>
-      <c r="G46" t="n">
-        <v>129</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G46" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>SNGSP</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>49.85</v>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="C47" s="3" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>SGU4</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>50810</v>
-      </c>
-      <c r="G47" t="n">
-        <v>38</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>SNGSP</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>SGZ4</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1051.2</v>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>NKU4</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>1051.2</v>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>NKZ4</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>226.78</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>MEU4</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G51" s="3" t="n">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>SNGSP</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>49.85</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>SGZ4</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>52600</v>
-      </c>
-      <c r="G48" t="n">
-        <v>129</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>NVTK</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>NKU4</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>107152</v>
-      </c>
-      <c r="G49" t="n">
-        <v>38</v>
-      </c>
-      <c r="H49" t="n">
-        <v>-1.88</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>NVTK</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>NKZ4</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>109852</v>
-      </c>
-      <c r="G50" t="n">
-        <v>129</v>
-      </c>
-      <c r="H50" t="n">
-        <v>22.04</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>226.39</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>MEU4</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>23073</v>
-      </c>
-      <c r="G51" t="n">
-        <v>38</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>MOEX</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>226.39</v>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="C52" s="5" t="n">
+        <v>226.78</v>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MEZ4</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>24101</v>
-      </c>
-      <c r="G52" t="n">
-        <v>129</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.27</v>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>SNGS</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>27</v>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="C53" s="3" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>SNU4</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>27548</v>
-      </c>
-      <c r="G53" t="n">
-        <v>38</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-0.04</v>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>SNGS</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>27</v>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="C54" s="5" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>SNZ4</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>28654</v>
-      </c>
-      <c r="G54" t="n">
-        <v>129</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.13</v>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>CBOM</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="C55" s="3" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>CMU4</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>6873</v>
-      </c>
-      <c r="G55" t="n">
-        <v>38</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G55" s="3" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2208,7 +2070,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2221,141 +2083,126 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6929</v>
+        <v>129</v>
       </c>
       <c r="G56" t="n">
-        <v>129</v>
-      </c>
-      <c r="H56" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>CBOM</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C57" s="5" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>CMH5</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>7156</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.47</v>
+      <c r="G57" s="6" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>806.3</v>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="C58" s="3" t="n">
+        <v>809.8</v>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>PIU4</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>8190</v>
-      </c>
-      <c r="G58" t="n">
-        <v>38</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.87</v>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>4.87</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>806.3</v>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="C59" s="5" t="n">
+        <v>809.8</v>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>PIZ4</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>8236</v>
-      </c>
-      <c r="G59" t="n">
-        <v>129</v>
-      </c>
-      <c r="H59" t="n">
-        <v>38.45</v>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>42.47</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>501.9</v>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C60" s="3" t="n">
+        <v>502.1</v>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>RNU4</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>51250</v>
-      </c>
-      <c r="G60" t="n">
-        <v>38</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-1.25</v>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="61">
@@ -2368,7 +2215,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>501.9</v>
+        <v>502.1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2381,13 +2228,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>53534</v>
+        <v>129</v>
       </c>
       <c r="G61" t="n">
-        <v>129</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-0.52</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="62">
@@ -2400,7 +2244,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>501.9</v>
+        <v>502.1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2413,13 +2257,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>54400</v>
+        <v>220</v>
       </c>
       <c r="G62" t="n">
-        <v>220</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15.88</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="63">
@@ -2432,7 +2273,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>501.9</v>
+        <v>502.1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2445,13 +2286,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>55830</v>
+        <v>311</v>
       </c>
       <c r="G63" t="n">
-        <v>311</v>
-      </c>
-      <c r="H63" t="n">
-        <v>26.4</v>
+        <v>26.63</v>
       </c>
     </row>
     <row r="64">
@@ -2464,7 +2302,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>501.9</v>
+        <v>502.1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2477,13 +2315,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>58164</v>
+        <v>402</v>
       </c>
       <c r="G64" t="n">
-        <v>402</v>
-      </c>
-      <c r="H64" t="n">
-        <v>28.55</v>
+        <v>28.78</v>
       </c>
     </row>
     <row r="65">
@@ -2496,7 +2331,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>501.9</v>
+        <v>502.1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2509,13 +2344,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>58758</v>
+        <v>493</v>
       </c>
       <c r="G65" t="n">
-        <v>493</v>
-      </c>
-      <c r="H65" t="n">
-        <v>47.25</v>
+        <v>47.48</v>
       </c>
     </row>
     <row r="66">
@@ -2528,7 +2360,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>501.9</v>
+        <v>502.1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2541,269 +2373,242 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>61270</v>
+        <v>584</v>
       </c>
       <c r="G66" t="n">
-        <v>584</v>
-      </c>
-      <c r="H66" t="n">
-        <v>48.84</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>501.9</v>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C67" s="5" t="n">
+        <v>502.1</v>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
         <is>
           <t>RNM6</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="5" t="inlineStr">
         <is>
           <t>2026-06-19</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>60796</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67" s="5" t="n">
         <v>675</v>
       </c>
-      <c r="H67" t="n">
-        <v>75.91</v>
+      <c r="G67" s="6" t="n">
+        <v>76.14</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>157.22</v>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C68" s="3" t="n">
+        <v>157.92</v>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>S0U4</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1599</v>
-      </c>
-      <c r="G68" t="n">
-        <v>38</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.33</v>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>157.22</v>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="C69" s="5" t="n">
+        <v>157.92</v>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
         <is>
           <t>S0Z4</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1603</v>
-      </c>
-      <c r="G69" t="n">
-        <v>129</v>
-      </c>
-      <c r="H69" t="n">
-        <v>7.81</v>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>1399.4</v>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="C70" s="3" t="n">
+        <v>1400.6</v>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>CHU4</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>139376</v>
-      </c>
-      <c r="G70" t="n">
-        <v>38</v>
-      </c>
-      <c r="H70" t="n">
-        <v>36.22</v>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>1399.4</v>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="C71" s="5" t="n">
+        <v>1400.6</v>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>CHZ4</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>142052</v>
-      </c>
-      <c r="G71" t="n">
-        <v>129</v>
-      </c>
-      <c r="H71" t="n">
-        <v>76.34</v>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>77.72</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>POLY</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>228.2</v>
-      </c>
-      <c r="D72" t="inlineStr">
+      <c r="C72" s="5" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
         <is>
           <t>POU4</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>2280</v>
-      </c>
-      <c r="G72" t="n">
-        <v>38</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5.09</v>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>4.63</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>TCSG</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>2630.5</v>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="C73" s="5" t="n">
+        <v>2630</v>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
         <is>
           <t>TIU4</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>26827</v>
-      </c>
-      <c r="G73" t="n">
-        <v>38</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-2.77</v>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>-4.36</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>KMAZ</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="D74" t="inlineStr">
+      <c r="C74" s="3" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>KMU4</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>1423</v>
-      </c>
-      <c r="G74" t="n">
-        <v>38</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.28</v>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="75">
@@ -2816,7 +2621,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>139.9</v>
+        <v>139.8</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2829,13 +2634,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1451</v>
+        <v>129</v>
       </c>
       <c r="G75" t="n">
-        <v>129</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4.3</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="76">
@@ -2848,7 +2650,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>139.9</v>
+        <v>139.8</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2861,205 +2663,184 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1499</v>
+        <v>220</v>
       </c>
       <c r="G76" t="n">
-        <v>220</v>
-      </c>
-      <c r="H76" t="n">
-        <v>6.22</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>KMAZ</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="D77" t="inlineStr">
+      <c r="C77" s="5" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
         <is>
           <t>KMM5</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>1542</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="F77" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H77" t="n">
-        <v>8.76</v>
+      <c r="G77" s="6" t="n">
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>YDEX</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>3914.5</v>
-      </c>
-      <c r="D78" t="inlineStr">
+      <c r="C78" s="3" t="n">
+        <v>3912.5</v>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>YDU4</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>2024-09-19</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>3953</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H78" t="n">
-        <v>37.88</v>
+      <c r="G78" s="3" t="n">
+        <v>36.71</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>YDEX</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>3914.5</v>
-      </c>
-      <c r="D79" t="inlineStr">
+      <c r="C79" s="5" t="n">
+        <v>3912.5</v>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
         <is>
           <t>YDZ4</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="5" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>4107</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="F79" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="H79" t="n">
-        <v>67.44</v>
+      <c r="G79" s="6" t="n">
+        <v>64.06</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t>SMLT</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>2588.5</v>
-      </c>
-      <c r="D80" t="inlineStr">
+      <c r="C80" s="3" t="n">
+        <v>2590.5</v>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>SSU4</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>2644</v>
-      </c>
-      <c r="G80" t="n">
-        <v>38</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-7.39</v>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>SMLT</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>2588.5</v>
-      </c>
-      <c r="D81" t="inlineStr">
+      <c r="C81" s="5" t="n">
+        <v>2590.5</v>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
         <is>
           <t>SSZ4</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>2763</v>
-      </c>
-      <c r="G81" t="n">
-        <v>129</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-4.88</v>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>-2.58</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t>BANE</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>2709</v>
-      </c>
-      <c r="D82" t="inlineStr">
+      <c r="C82" s="3" t="n">
+        <v>2707.5</v>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>BNU4</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>2678</v>
-      </c>
-      <c r="G82" t="n">
-        <v>38</v>
-      </c>
-      <c r="H82" t="n">
-        <v>92.76000000000001</v>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>78.63</v>
       </c>
     </row>
     <row r="83">
@@ -3072,7 +2853,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2709</v>
+        <v>2707.5</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3085,76 +2866,67 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2702</v>
+        <v>129</v>
       </c>
       <c r="G83" t="n">
-        <v>129</v>
-      </c>
-      <c r="H83" t="n">
-        <v>199.42</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>BANE</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>2709</v>
-      </c>
-      <c r="D84" t="inlineStr">
+      <c r="C84" s="5" t="n">
+        <v>2707.5</v>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
         <is>
           <t>BNH5</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>2686</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="F84" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H84" t="n">
-        <v>343.79</v>
+      <c r="G84" s="6" t="n">
+        <v>342.06</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t>AFLT</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>51.26</v>
-      </c>
-      <c r="D85" t="inlineStr">
+      <c r="C85" s="3" t="n">
+        <v>51.62</v>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>AFU4</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>5213</v>
-      </c>
-      <c r="G85" t="n">
-        <v>38</v>
-      </c>
-      <c r="H85" t="n">
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G85" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3168,7 +2940,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>51.26</v>
+        <v>51.62</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3181,77 +2953,68 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5402</v>
+        <v>129</v>
       </c>
       <c r="G86" t="n">
-        <v>129</v>
-      </c>
-      <c r="H86" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="5" t="inlineStr">
         <is>
           <t>AFLT</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>51.26</v>
-      </c>
-      <c r="D87" t="inlineStr">
+      <c r="C87" s="5" t="n">
+        <v>51.62</v>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
         <is>
           <t>AFH5</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>5404</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="F87" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H87" t="n">
-        <v>3.19</v>
+      <c r="G87" s="6" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>283.14</v>
-      </c>
-      <c r="D88" t="inlineStr">
+      <c r="C88" s="3" t="n">
+        <v>283.16</v>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>SRU4</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>28891</v>
-      </c>
-      <c r="G88" t="n">
-        <v>38</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-0.47</v>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="89">
@@ -3264,7 +3027,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>283.14</v>
+        <v>283.16</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3277,13 +3040,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>30181</v>
+        <v>129</v>
       </c>
       <c r="G89" t="n">
-        <v>129</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="90">
@@ -3296,7 +3056,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>283.14</v>
+        <v>283.16</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3309,77 +3069,68 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>31728</v>
+        <v>220</v>
       </c>
       <c r="G90" t="n">
-        <v>220</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-1.75</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>283.14</v>
-      </c>
-      <c r="D91" t="inlineStr">
+      <c r="C91" s="5" t="n">
+        <v>283.16</v>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
         <is>
           <t>SRM5</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>32480</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H91" t="n">
-        <v>5.19</v>
+      <c r="G91" s="6" t="n">
+        <v>5.21</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t>MVID</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="3" t="n">
         <v>150.3</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>MVU4</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1520</v>
-      </c>
-      <c r="G92" t="n">
-        <v>38</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1.29</v>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="93">
@@ -3405,13 +3156,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1555</v>
+        <v>129</v>
       </c>
       <c r="G93" t="n">
-        <v>129</v>
-      </c>
-      <c r="H93" t="n">
-        <v>5.04</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="94">
@@ -3437,141 +3185,126 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1615</v>
+        <v>220</v>
       </c>
       <c r="G94" t="n">
-        <v>220</v>
-      </c>
-      <c r="H94" t="n">
         <v>6.21</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="5" t="inlineStr">
         <is>
           <t>MVID</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="5" t="n">
         <v>150.3</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="5" t="inlineStr">
         <is>
           <t>MVM5</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F95" t="n">
-        <v>1739</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="F95" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H95" t="n">
+      <c r="G95" s="6" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>155.81</v>
-      </c>
-      <c r="D96" t="inlineStr">
+      <c r="C96" s="3" t="n">
+        <v>155.84</v>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>MCU4</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>15943</v>
-      </c>
-      <c r="G96" t="n">
-        <v>38</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-0.76</v>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>155.81</v>
-      </c>
-      <c r="D97" t="inlineStr">
+      <c r="C97" s="5" t="n">
+        <v>155.84</v>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
         <is>
           <t>MCZ4</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>15954</v>
-      </c>
-      <c r="G97" t="n">
-        <v>129</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7.01</v>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>130.07</v>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="C98" s="3" t="n">
+        <v>129.97</v>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>GZU4</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>13259</v>
-      </c>
-      <c r="G98" t="n">
-        <v>38</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-0.07000000000000001</v>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="99">
@@ -3584,7 +3317,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>130.07</v>
+        <v>129.97</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3597,13 +3330,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>13857</v>
+        <v>129</v>
       </c>
       <c r="G99" t="n">
-        <v>129</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="100">
@@ -3616,7 +3346,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>130.07</v>
+        <v>129.97</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3629,13 +3359,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>14498</v>
+        <v>220</v>
       </c>
       <c r="G100" t="n">
-        <v>220</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-0.01</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="101">
@@ -3648,7 +3375,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>130.07</v>
+        <v>129.97</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3661,13 +3388,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>15265</v>
+        <v>311</v>
       </c>
       <c r="G101" t="n">
-        <v>311</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-1.01</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="102">
@@ -3680,7 +3404,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>130.07</v>
+        <v>129.97</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3693,13 +3417,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>15887</v>
+        <v>402</v>
       </c>
       <c r="G102" t="n">
-        <v>402</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-0.27</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="103">
@@ -3712,7 +3433,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>130.07</v>
+        <v>129.97</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3725,13 +3446,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>16183</v>
+        <v>493</v>
       </c>
       <c r="G103" t="n">
-        <v>493</v>
-      </c>
-      <c r="H103" t="n">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="104">
@@ -3744,7 +3462,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>130.07</v>
+        <v>129.97</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3757,141 +3475,126 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>16948</v>
+        <v>584</v>
       </c>
       <c r="G104" t="n">
-        <v>584</v>
-      </c>
-      <c r="H104" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>130.07</v>
-      </c>
-      <c r="D105" t="inlineStr">
+      <c r="C105" s="5" t="n">
+        <v>129.97</v>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
         <is>
           <t>GZM6</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="5" t="inlineStr">
         <is>
           <t>2026-06-19</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>17430</v>
-      </c>
-      <c r="G105" t="n">
+      <c r="F105" s="5" t="n">
         <v>675</v>
       </c>
-      <c r="H105" t="n">
-        <v>5.88</v>
+      <c r="G105" s="6" t="n">
+        <v>5.76</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>282.68</v>
-      </c>
-      <c r="D106" t="inlineStr">
+      <c r="C106" s="3" t="n">
+        <v>282.77</v>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
         <is>
           <t>SPU4</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>28832</v>
-      </c>
-      <c r="G106" t="n">
-        <v>38</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-0.33</v>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>282.68</v>
-      </c>
-      <c r="D107" t="inlineStr">
+      <c r="C107" s="5" t="n">
+        <v>282.77</v>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
         <is>
           <t>SPZ4</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>30117</v>
-      </c>
-      <c r="G107" t="n">
-        <v>129</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.08</v>
+      <c r="E107" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F107" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G107" s="6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="3" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>361.88</v>
-      </c>
-      <c r="D108" t="inlineStr">
+      <c r="C108" s="3" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
         <is>
           <t>BSU4</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>3692</v>
-      </c>
-      <c r="G108" t="n">
-        <v>38</v>
-      </c>
-      <c r="H108" t="n">
-        <v>-0.54</v>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="109">
@@ -3904,7 +3607,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>361.88</v>
+        <v>361.75</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3917,13 +3620,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3700</v>
+        <v>129</v>
       </c>
       <c r="G109" t="n">
-        <v>129</v>
-      </c>
-      <c r="H109" t="n">
-        <v>16.87</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="110">
@@ -3936,7 +3636,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>361.88</v>
+        <v>361.75</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3949,397 +3649,358 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3760</v>
+        <v>220</v>
       </c>
       <c r="G110" t="n">
-        <v>220</v>
-      </c>
-      <c r="H110" t="n">
-        <v>28.19</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>361.88</v>
-      </c>
-      <c r="D111" t="inlineStr">
+      <c r="C111" s="5" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="D111" s="5" t="inlineStr">
         <is>
           <t>BSM5</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>3854</v>
-      </c>
-      <c r="G111" t="n">
+      <c r="F111" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H111" t="n">
-        <v>35.94</v>
+      <c r="G111" s="6" t="n">
+        <v>35.79</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>ASTR</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>560.2</v>
-      </c>
-      <c r="D112" t="inlineStr">
+      <c r="C112" s="3" t="n">
+        <v>559.9</v>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>ASU4</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>570</v>
-      </c>
-      <c r="G112" t="n">
-        <v>38</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.9</v>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>ASTR</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>560.2</v>
-      </c>
-      <c r="D113" t="inlineStr">
+      <c r="C113" s="5" t="n">
+        <v>559.9</v>
+      </c>
+      <c r="D113" s="5" t="inlineStr">
         <is>
           <t>ASZ4</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>601</v>
-      </c>
-      <c r="G113" t="n">
-        <v>129</v>
-      </c>
-      <c r="H113" t="n">
-        <v>-4.33</v>
+      <c r="E113" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F113" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G113" s="6" t="n">
+        <v>-4.67</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="3" t="inlineStr">
         <is>
           <t>POSI</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>2916.8</v>
-      </c>
-      <c r="D114" t="inlineStr">
+      <c r="C114" s="3" t="n">
+        <v>2915.8</v>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>PSU4</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>2951</v>
-      </c>
-      <c r="G114" t="n">
-        <v>38</v>
-      </c>
-      <c r="H114" t="n">
-        <v>23.65</v>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>16.86</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="4" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="5" t="inlineStr">
         <is>
           <t>POSI</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>2916.8</v>
-      </c>
-      <c r="D115" t="inlineStr">
+      <c r="C115" s="5" t="n">
+        <v>2915.8</v>
+      </c>
+      <c r="D115" s="5" t="inlineStr">
         <is>
           <t>PSZ4</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>3100</v>
-      </c>
-      <c r="G115" t="n">
-        <v>129</v>
-      </c>
-      <c r="H115" t="n">
-        <v>8.99</v>
+      <c r="E115" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F115" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G115" s="6" t="n">
+        <v>7.84</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="3" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>686.5</v>
-      </c>
-      <c r="D116" t="inlineStr">
+      <c r="C116" s="3" t="n">
+        <v>685.85</v>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
         <is>
           <t>SOU4</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>6987</v>
-      </c>
-      <c r="G116" t="n">
-        <v>38</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.88</v>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>-2.01</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="4" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>686.5</v>
-      </c>
-      <c r="D117" t="inlineStr">
+      <c r="C117" s="5" t="n">
+        <v>685.85</v>
+      </c>
+      <c r="D117" s="5" t="inlineStr">
         <is>
           <t>SOZ4</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>7300</v>
-      </c>
-      <c r="G117" t="n">
-        <v>129</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1.7</v>
+      <c r="E117" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F117" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="3" t="inlineStr">
         <is>
           <t>RNFT</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>157.4</v>
-      </c>
-      <c r="D118" t="inlineStr">
+      <c r="C118" s="3" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
         <is>
           <t>RUU4</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="3" t="inlineStr">
         <is>
           <t>2024-09-19</t>
         </is>
       </c>
-      <c r="F118" t="n">
-        <v>1603</v>
-      </c>
-      <c r="G118" t="n">
+      <c r="F118" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H118" t="n">
-        <v>-0</v>
+      <c r="G118" s="3" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="5" t="inlineStr">
         <is>
           <t>RNFT</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>157.4</v>
-      </c>
-      <c r="D119" t="inlineStr">
+      <c r="C119" s="5" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="D119" s="5" t="inlineStr">
         <is>
           <t>RUZ4</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>1685</v>
-      </c>
-      <c r="G119" t="n">
-        <v>129</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-0.82</v>
+      <c r="E119" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F119" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="3" t="n">
         <v>0.61</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t>HYU4</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>6187</v>
-      </c>
-      <c r="G120" t="n">
-        <v>38</v>
-      </c>
-      <c r="H120" t="n">
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G120" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="5" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="5" t="n">
         <v>0.61</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D121" s="5" t="inlineStr">
         <is>
           <t>HYZ4</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>6442</v>
-      </c>
-      <c r="G121" t="n">
-        <v>129</v>
-      </c>
-      <c r="H121" t="n">
+      <c r="E121" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F121" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G121" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="3" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>164.82</v>
-      </c>
-      <c r="D122" t="inlineStr">
+      <c r="C122" s="3" t="n">
+        <v>164.84</v>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
         <is>
           <t>NMU4</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>16743</v>
-      </c>
-      <c r="G122" t="n">
-        <v>38</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.57</v>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="123">
@@ -4352,7 +4013,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>164.82</v>
+        <v>164.84</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4365,141 +4026,126 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>16950</v>
+        <v>129</v>
       </c>
       <c r="G123" t="n">
-        <v>129</v>
-      </c>
-      <c r="H123" t="n">
-        <v>6.63</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="4" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="5" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>164.82</v>
-      </c>
-      <c r="D124" t="inlineStr">
+      <c r="C124" s="5" t="n">
+        <v>164.84</v>
+      </c>
+      <c r="D124" s="5" t="inlineStr">
         <is>
           <t>NMH5</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="5" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>17454</v>
-      </c>
-      <c r="G124" t="n">
+      <c r="F124" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="H124" t="n">
-        <v>9.449999999999999</v>
+      <c r="G124" s="6" t="n">
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="3" t="inlineStr">
         <is>
           <t>FESH</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>68.31</v>
-      </c>
-      <c r="D125" t="inlineStr">
+      <c r="C125" s="3" t="n">
+        <v>68.33</v>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
         <is>
           <t>FEU4</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="3" t="inlineStr">
         <is>
           <t>2024-09-19</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>7005</v>
-      </c>
-      <c r="G125" t="n">
+      <c r="F125" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H125" t="n">
-        <v>-0.54</v>
+      <c r="G125" s="3" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="4" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="5" t="inlineStr">
         <is>
           <t>FESH</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>68.31</v>
-      </c>
-      <c r="D126" t="inlineStr">
+      <c r="C126" s="5" t="n">
+        <v>68.33</v>
+      </c>
+      <c r="D126" s="5" t="inlineStr">
         <is>
           <t>FEZ4</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>7151</v>
-      </c>
-      <c r="G126" t="n">
-        <v>129</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1.39</v>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F126" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="3" t="inlineStr">
         <is>
           <t>SGZH</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="3" t="n">
         <v>2.24</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D127" s="3" t="inlineStr">
         <is>
           <t>SZU4</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>2185</v>
-      </c>
-      <c r="G127" t="n">
-        <v>38</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.11</v>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="128">
@@ -4525,13 +4171,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2197</v>
+        <v>129</v>
       </c>
       <c r="G128" t="n">
-        <v>129</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="129">
@@ -4557,269 +4200,242 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2220</v>
+        <v>220</v>
       </c>
       <c r="G129" t="n">
-        <v>220</v>
-      </c>
-      <c r="H129" t="n">
         <v>0.29</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="4" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="5" t="inlineStr">
         <is>
           <t>SGZH</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="5" t="n">
         <v>2.24</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" s="5" t="inlineStr">
         <is>
           <t>SZM5</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E130" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>2273</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="F130" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H130" t="n">
-        <v>0.33</v>
+      <c r="G130" s="6" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>127.78</v>
-      </c>
-      <c r="D131" t="inlineStr">
+      <c r="C131" s="3" t="n">
+        <v>127.74</v>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
         <is>
           <t>GKU4</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>1303</v>
-      </c>
-      <c r="G131" t="n">
-        <v>38</v>
-      </c>
-      <c r="H131" t="n">
-        <v>-0.12</v>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="5" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>127.78</v>
-      </c>
-      <c r="D132" t="inlineStr">
+      <c r="C132" s="5" t="n">
+        <v>127.74</v>
+      </c>
+      <c r="D132" s="5" t="inlineStr">
         <is>
           <t>GKZ4</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>1362</v>
-      </c>
-      <c r="G132" t="n">
-        <v>129</v>
-      </c>
-      <c r="H132" t="n">
-        <v>-0.03</v>
+      <c r="E132" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F132" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="3" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="D133" t="inlineStr">
+      <c r="C133" s="3" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
         <is>
           <t>AKU4</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>20882</v>
-      </c>
-      <c r="G133" t="n">
-        <v>38</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.02</v>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="4" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="5" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="D134" t="inlineStr">
+      <c r="C134" s="5" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D134" s="5" t="inlineStr">
         <is>
           <t>AKZ4</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>21290</v>
-      </c>
-      <c r="G134" t="n">
-        <v>129</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.62</v>
+      <c r="E134" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F134" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="3" t="inlineStr">
         <is>
           <t>PLZL</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>12822</v>
-      </c>
-      <c r="D135" t="inlineStr">
+      <c r="C135" s="3" t="n">
+        <v>12824</v>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
         <is>
           <t>PZU4</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>130231</v>
-      </c>
-      <c r="G135" t="n">
-        <v>38</v>
-      </c>
-      <c r="H135" t="n">
-        <v>46.69</v>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>56.21</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="4" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="5" t="inlineStr">
         <is>
           <t>PLZL</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>12822</v>
-      </c>
-      <c r="D136" t="inlineStr">
+      <c r="C136" s="5" t="n">
+        <v>12824</v>
+      </c>
+      <c r="D136" s="5" t="inlineStr">
         <is>
           <t>PZZ4</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>134236</v>
-      </c>
-      <c r="G136" t="n">
-        <v>129</v>
-      </c>
-      <c r="H136" t="n">
-        <v>259.27</v>
+      <c r="E136" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F136" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>261.57</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>6445.5</v>
-      </c>
-      <c r="D137" t="inlineStr">
+      <c r="C137" s="3" t="n">
+        <v>6446</v>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
         <is>
           <t>LKU4</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>65748</v>
-      </c>
-      <c r="G137" t="n">
-        <v>38</v>
-      </c>
-      <c r="H137" t="n">
-        <v>-8.35</v>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>-13.08</v>
       </c>
     </row>
     <row r="138">
@@ -4832,7 +4448,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6445.5</v>
+        <v>6446</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4845,13 +4461,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>66033</v>
+        <v>129</v>
       </c>
       <c r="G138" t="n">
-        <v>129</v>
-      </c>
-      <c r="H138" t="n">
-        <v>286.32</v>
+        <v>286.89</v>
       </c>
     </row>
     <row r="139">
@@ -4864,7 +4477,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6445.5</v>
+        <v>6446</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4877,109 +4490,97 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>69598</v>
+        <v>220</v>
       </c>
       <c r="G139" t="n">
-        <v>220</v>
-      </c>
-      <c r="H139" t="n">
-        <v>231.15</v>
+        <v>231.73</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="4" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>6445.5</v>
-      </c>
-      <c r="D140" t="inlineStr">
+      <c r="C140" s="5" t="n">
+        <v>6446</v>
+      </c>
+      <c r="D140" s="5" t="inlineStr">
         <is>
           <t>LKM5</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E140" s="5" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="F140" t="n">
-        <v>72300</v>
-      </c>
-      <c r="G140" t="n">
+      <c r="F140" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="H140" t="n">
-        <v>279.63</v>
+      <c r="G140" s="6" t="n">
+        <v>280.21</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="3" t="inlineStr">
         <is>
           <t>LEAS</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>854.4</v>
-      </c>
-      <c r="D141" t="inlineStr">
+      <c r="C141" s="3" t="n">
+        <v>854.2</v>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
         <is>
           <t>LEU4</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E141" s="3" t="inlineStr">
         <is>
           <t>2024-09-19</t>
         </is>
       </c>
-      <c r="F141" t="n">
-        <v>877</v>
-      </c>
-      <c r="G141" t="n">
+      <c r="F141" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H141" t="n">
-        <v>-7.75</v>
+      <c r="G141" s="3" t="n">
+        <v>-7.98</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="5" t="inlineStr">
         <is>
           <t>LEAS</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>854.4</v>
-      </c>
-      <c r="D142" t="inlineStr">
+      <c r="C142" s="5" t="n">
+        <v>854.2</v>
+      </c>
+      <c r="D142" s="5" t="inlineStr">
         <is>
           <t>LEZ4</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>920</v>
-      </c>
-      <c r="G142" t="n">
-        <v>129</v>
-      </c>
-      <c r="H142" t="n">
-        <v>-10.24</v>
+      <c r="E142" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="F142" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="G142" s="6" t="n">
+        <v>-10.47</v>
       </c>
     </row>
   </sheetData>
